--- a/election_votar_data/LOHAGARA/CHARAMBA/152609/152609_com_1233_female_without_photo_71_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152609/152609_com_1233_female_without_photo_71_2025-11-24.xlsx
@@ -18753,7 +18753,7 @@
       </c>
       <c r="F436" s="3" t="inlineStr">
         <is>
-          <t>দর্জি জন্ম তারিখ: ০৩/০২/১৯৯২</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G436" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHARAMBA/152609/152609_com_1233_female_without_photo_71_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152609/152609_com_1233_female_without_photo_71_2025-11-24.xlsx
@@ -18753,7 +18753,7 @@
       </c>
       <c r="F436" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দর্জি জন্ম তারিখ: ০৩/০২/১৯৯২</t>
         </is>
       </c>
       <c r="G436" s="3" t="inlineStr">
